--- a/biology/Médecine/Temple_de_la_renommée_médicale_canadienne/Temple_de_la_renommée_médicale_canadienne.xlsx
+++ b/biology/Médecine/Temple_de_la_renommée_médicale_canadienne/Temple_de_la_renommée_médicale_canadienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Temple_de_la_renomm%C3%A9e_m%C3%A9dicale_canadienne</t>
+          <t>Temple_de_la_renommée_médicale_canadienne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Temple de la renommée médicale canadienne est une façon de rendre hommage en permanence aux Canadiens et aux Canadiennes d’hier et d’aujourd’hui qui ont contribué à une plus grande compréhension des maladies et à la promotion universelle de la santé.
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Temple_de_la_renomm%C3%A9e_m%C3%A9dicale_canadienne</t>
+          <t>Temple_de_la_renommée_médicale_canadienne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Membres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1994
 Maude Elizabeth Seymour Abbott
@@ -612,10 +626,10 @@
 2015
 (à compléter)
 2016
-Mark Wainberg[1]
+Mark Wainberg
 (à compléter)
 2017
-Michel G. Bergeron[2]
+Michel G. Bergeron
 (à compléter)</t>
         </is>
       </c>
